--- a/config_Release/sign_in_config_server.xlsx
+++ b/config_Release/sign_in_config_server.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+  <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="4" r:id="rId1"/>
@@ -12,7 +12,7 @@
     <sheet name="acc|累积签到" sheetId="3" r:id="rId3"/>
     <sheet name="award" sheetId="2" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="28">
   <si>
     <t>no|第几天</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -109,14 +109,34 @@
   </si>
   <si>
     <t>gun_barrel_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>award_id|奖励(默认)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>permission_award_id|奖励</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"cpl_cjj",13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>权限奖励存在会检测权限并替换默认的奖励</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shop_gold_sum</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -548,7 +568,7 @@
       <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="10.5" style="1" customWidth="1"/>
     <col min="2" max="2" width="31.875" style="1" bestFit="1" customWidth="1"/>
@@ -557,7 +577,7 @@
     <col min="5" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" ht="33.75" customHeight="1">
       <c r="A1" s="4" t="s">
         <v>16</v>
       </c>
@@ -582,7 +602,7 @@
       <c r="N1"/>
       <c r="O1"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15">
       <c r="A2" s="7">
         <v>1</v>
       </c>
@@ -605,7 +625,7 @@
       <c r="N2"/>
       <c r="O2"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15">
       <c r="A3" s="7"/>
       <c r="B3" s="7"/>
       <c r="C3" s="6"/>
@@ -622,7 +642,7 @@
       <c r="N3"/>
       <c r="O3"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15">
       <c r="A4" s="7"/>
       <c r="B4" s="7"/>
       <c r="C4" s="6"/>
@@ -639,7 +659,7 @@
       <c r="N4"/>
       <c r="O4"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15">
       <c r="A5" s="7"/>
       <c r="B5" s="7"/>
       <c r="C5" s="6"/>
@@ -656,7 +676,7 @@
       <c r="N5"/>
       <c r="O5"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15">
       <c r="A6" s="7"/>
       <c r="B6" s="7"/>
       <c r="C6" s="6"/>
@@ -673,7 +693,7 @@
       <c r="N6"/>
       <c r="O6"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15">
       <c r="A7" s="7"/>
       <c r="B7" s="7"/>
       <c r="C7" s="6"/>
@@ -690,7 +710,7 @@
       <c r="N7"/>
       <c r="O7"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15">
       <c r="A8" s="7"/>
       <c r="B8" s="7"/>
       <c r="C8" s="6"/>
@@ -707,7 +727,7 @@
       <c r="N8"/>
       <c r="O8"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15">
       <c r="A9" s="6"/>
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
@@ -724,7 +744,7 @@
       <c r="N9"/>
       <c r="O9"/>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15">
       <c r="A10" s="6"/>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
@@ -741,7 +761,7 @@
       <c r="N10"/>
       <c r="O10"/>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15">
       <c r="A11" s="6"/>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
@@ -758,7 +778,7 @@
       <c r="N11"/>
       <c r="O11"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15">
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
@@ -775,7 +795,7 @@
       <c r="N12"/>
       <c r="O12"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15">
       <c r="A13" s="6"/>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
@@ -792,7 +812,7 @@
       <c r="N13"/>
       <c r="O13"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15">
       <c r="A14" s="6"/>
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
@@ -809,7 +829,7 @@
       <c r="N14"/>
       <c r="O14"/>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15">
       <c r="A15" s="6"/>
       <c r="B15" s="6"/>
       <c r="C15" s="6"/>
@@ -826,7 +846,7 @@
       <c r="N15"/>
       <c r="O15"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15">
       <c r="A16" s="6"/>
       <c r="B16" s="6"/>
       <c r="C16" s="6"/>
@@ -843,7 +863,7 @@
       <c r="N16"/>
       <c r="O16"/>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:15">
       <c r="A17" s="6"/>
       <c r="B17" s="6"/>
       <c r="C17" s="6"/>
@@ -860,7 +880,7 @@
       <c r="N17"/>
       <c r="O17"/>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:15">
       <c r="A18" s="6"/>
       <c r="B18" s="6"/>
       <c r="C18" s="6"/>
@@ -877,7 +897,7 @@
       <c r="N18"/>
       <c r="O18"/>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:15">
       <c r="A19" s="6"/>
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>
@@ -902,22 +922,23 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O19"/>
+  <dimension ref="A1:P19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="23.875" style="1" customWidth="1"/>
     <col min="2" max="2" width="14.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.375" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.875" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9" style="3"/>
+    <col min="3" max="3" width="28.5" customWidth="1"/>
+    <col min="4" max="4" width="25.375" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="43.375" style="3" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" ht="36" customHeight="1">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -925,49 +946,53 @@
         <v>1</v>
       </c>
       <c r="C1" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="4"/>
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
-      <c r="H1" s="5"/>
+      <c r="H1" s="4"/>
       <c r="I1" s="5"/>
       <c r="J1" s="5"/>
       <c r="K1" s="5"/>
       <c r="L1" s="5"/>
-      <c r="M1"/>
+      <c r="M1" s="5"/>
       <c r="N1"/>
       <c r="O1"/>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P1"/>
+    </row>
+    <row r="2" spans="1:16">
       <c r="A2" s="7">
         <v>1</v>
       </c>
       <c r="B2" s="6">
         <v>1</v>
       </c>
-      <c r="C2" s="6">
+      <c r="C2" s="6"/>
+      <c r="D2" s="6">
         <v>1</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="E2" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="7"/>
       <c r="F2" s="7"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="7"/>
-      <c r="I2"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="7"/>
       <c r="J2"/>
       <c r="K2"/>
       <c r="L2"/>
       <c r="M2"/>
       <c r="N2"/>
       <c r="O2"/>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P2"/>
+    </row>
+    <row r="3" spans="1:16">
       <c r="A3" s="7">
         <v>2</v>
       </c>
@@ -975,43 +1000,47 @@
         <v>2</v>
       </c>
       <c r="C3" s="6"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="7" t="s">
+        <v>26</v>
+      </c>
       <c r="F3" s="7"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="7"/>
-      <c r="I3"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="7"/>
       <c r="J3"/>
       <c r="K3"/>
       <c r="L3"/>
       <c r="M3"/>
       <c r="N3"/>
       <c r="O3"/>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P3"/>
+    </row>
+    <row r="4" spans="1:16">
       <c r="A4" s="7">
         <v>3</v>
       </c>
       <c r="B4" s="6">
         <v>3</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="6"/>
+      <c r="D4" s="6">
         <v>2</v>
       </c>
-      <c r="D4" s="7"/>
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="7"/>
-      <c r="I4"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="7"/>
       <c r="J4"/>
       <c r="K4"/>
       <c r="L4"/>
       <c r="M4"/>
       <c r="N4"/>
       <c r="O4"/>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P4"/>
+    </row>
+    <row r="5" spans="1:16">
       <c r="A5" s="7">
         <v>4</v>
       </c>
@@ -1019,43 +1048,45 @@
         <v>4</v>
       </c>
       <c r="C5" s="6"/>
-      <c r="D5" s="7"/>
+      <c r="D5" s="6"/>
       <c r="E5" s="7"/>
       <c r="F5" s="7"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="7"/>
-      <c r="I5"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="7"/>
       <c r="J5"/>
       <c r="K5"/>
       <c r="L5"/>
       <c r="M5"/>
       <c r="N5"/>
       <c r="O5"/>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P5"/>
+    </row>
+    <row r="6" spans="1:16">
       <c r="A6" s="7">
         <v>5</v>
       </c>
       <c r="B6" s="6">
         <v>5</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6" s="6"/>
+      <c r="D6" s="6">
         <v>3</v>
       </c>
-      <c r="D6" s="7"/>
       <c r="E6" s="7"/>
       <c r="F6" s="7"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="7"/>
-      <c r="I6"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="7"/>
       <c r="J6"/>
       <c r="K6"/>
       <c r="L6"/>
       <c r="M6"/>
       <c r="N6"/>
       <c r="O6"/>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P6"/>
+    </row>
+    <row r="7" spans="1:16">
       <c r="A7" s="7">
         <v>6</v>
       </c>
@@ -1063,20 +1094,21 @@
         <v>6</v>
       </c>
       <c r="C7" s="6"/>
-      <c r="D7" s="7"/>
+      <c r="D7" s="6"/>
       <c r="E7" s="7"/>
       <c r="F7" s="7"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="7"/>
-      <c r="I7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="7"/>
       <c r="J7"/>
       <c r="K7"/>
       <c r="L7"/>
       <c r="M7"/>
       <c r="N7"/>
       <c r="O7"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P7"/>
+    </row>
+    <row r="8" spans="1:16">
       <c r="A8" s="7">
         <v>7</v>
       </c>
@@ -1084,205 +1116,207 @@
         <v>7</v>
       </c>
       <c r="C8" s="6"/>
-      <c r="D8" s="7"/>
+      <c r="D8" s="6"/>
       <c r="E8" s="7"/>
       <c r="F8" s="7"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="7"/>
-      <c r="I8"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="7"/>
       <c r="J8"/>
       <c r="K8"/>
       <c r="L8"/>
       <c r="M8"/>
       <c r="N8"/>
       <c r="O8"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P8"/>
+    </row>
+    <row r="9" spans="1:16">
       <c r="A9" s="6"/>
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
-      <c r="D9" s="7"/>
+      <c r="D9" s="6"/>
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="7"/>
-      <c r="I9"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="7"/>
       <c r="J9"/>
       <c r="K9"/>
       <c r="L9"/>
       <c r="M9"/>
       <c r="N9"/>
       <c r="O9"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P9"/>
+    </row>
+    <row r="10" spans="1:16">
       <c r="A10" s="6"/>
       <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="7"/>
+      <c r="D10" s="6"/>
       <c r="E10" s="7"/>
       <c r="F10" s="7"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="7"/>
-      <c r="I10"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="7"/>
       <c r="J10"/>
       <c r="K10"/>
       <c r="L10"/>
       <c r="M10"/>
       <c r="N10"/>
       <c r="O10"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P10"/>
+    </row>
+    <row r="11" spans="1:16">
       <c r="A11" s="6"/>
       <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="7"/>
+      <c r="D11" s="6"/>
       <c r="E11" s="7"/>
       <c r="F11" s="7"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="7"/>
-      <c r="I11"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="7"/>
       <c r="J11"/>
       <c r="K11"/>
       <c r="L11"/>
       <c r="M11"/>
       <c r="N11"/>
       <c r="O11"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P11"/>
+    </row>
+    <row r="12" spans="1:16">
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="7"/>
+      <c r="D12" s="6"/>
       <c r="E12" s="7"/>
       <c r="F12" s="7"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="7"/>
-      <c r="I12"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="7"/>
       <c r="J12"/>
       <c r="K12"/>
       <c r="L12"/>
       <c r="M12"/>
       <c r="N12"/>
       <c r="O12"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P12"/>
+    </row>
+    <row r="13" spans="1:16">
       <c r="A13" s="6"/>
       <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="7"/>
+      <c r="D13" s="6"/>
       <c r="E13" s="7"/>
       <c r="F13" s="7"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="7"/>
-      <c r="I13"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="7"/>
       <c r="J13"/>
       <c r="K13"/>
       <c r="L13"/>
       <c r="M13"/>
       <c r="N13"/>
       <c r="O13"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P13"/>
+    </row>
+    <row r="14" spans="1:16">
       <c r="A14" s="6"/>
       <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="7"/>
+      <c r="D14" s="6"/>
       <c r="E14" s="7"/>
       <c r="F14" s="7"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="7"/>
-      <c r="I14"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="7"/>
       <c r="J14"/>
       <c r="K14"/>
       <c r="L14"/>
       <c r="M14"/>
       <c r="N14"/>
       <c r="O14"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P14"/>
+    </row>
+    <row r="15" spans="1:16">
       <c r="A15" s="6"/>
       <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="7"/>
+      <c r="D15" s="6"/>
       <c r="E15" s="7"/>
       <c r="F15" s="7"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="7"/>
-      <c r="I15"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="7"/>
       <c r="J15"/>
       <c r="K15"/>
       <c r="L15"/>
       <c r="M15"/>
       <c r="N15"/>
       <c r="O15"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P15"/>
+    </row>
+    <row r="16" spans="1:16">
       <c r="A16" s="6"/>
       <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="7"/>
+      <c r="D16" s="6"/>
       <c r="E16" s="7"/>
       <c r="F16" s="7"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="7"/>
-      <c r="I16"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="7"/>
       <c r="J16"/>
       <c r="K16"/>
       <c r="L16"/>
       <c r="M16"/>
       <c r="N16"/>
       <c r="O16"/>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P16"/>
+    </row>
+    <row r="17" spans="1:16">
       <c r="A17" s="6"/>
       <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="7"/>
+      <c r="D17" s="6"/>
       <c r="E17" s="7"/>
       <c r="F17" s="7"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="7"/>
-      <c r="I17"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="7"/>
       <c r="J17"/>
       <c r="K17"/>
       <c r="L17"/>
       <c r="M17"/>
       <c r="N17"/>
       <c r="O17"/>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P17"/>
+    </row>
+    <row r="18" spans="1:16">
       <c r="A18" s="6"/>
       <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="7"/>
+      <c r="D18" s="6"/>
       <c r="E18" s="7"/>
       <c r="F18" s="7"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="7"/>
-      <c r="I18"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="7"/>
       <c r="J18"/>
       <c r="K18"/>
       <c r="L18"/>
       <c r="M18"/>
       <c r="N18"/>
       <c r="O18"/>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P18"/>
+    </row>
+    <row r="19" spans="1:16">
       <c r="A19" s="6"/>
       <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="7"/>
+      <c r="D19" s="6"/>
       <c r="E19" s="7"/>
       <c r="F19" s="7"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="7"/>
-      <c r="I19"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="7"/>
       <c r="J19"/>
       <c r="K19"/>
       <c r="L19"/>
       <c r="M19"/>
       <c r="N19"/>
       <c r="O19"/>
+      <c r="P19"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1293,21 +1327,22 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="1"/>
     <col min="2" max="2" width="22.875" customWidth="1"/>
-    <col min="3" max="3" width="18.25" customWidth="1"/>
-    <col min="4" max="4" width="46.875" customWidth="1"/>
+    <col min="3" max="3" width="24.5" customWidth="1"/>
+    <col min="4" max="4" width="28.5" customWidth="1"/>
+    <col min="5" max="5" width="46.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" ht="42" customHeight="1">
       <c r="A1" s="4" t="s">
         <v>11</v>
       </c>
@@ -1315,13 +1350,16 @@
         <v>12</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="D1" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5">
       <c r="A2" s="7">
         <v>1</v>
       </c>
@@ -1331,11 +1369,12 @@
       <c r="C2" s="6">
         <v>8</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="6"/>
+      <c r="E2" s="7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5">
       <c r="A3" s="7">
         <v>2</v>
       </c>
@@ -1345,11 +1384,12 @@
       <c r="C3" s="6">
         <v>9</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="6"/>
+      <c r="E3" s="7" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5">
       <c r="A4" s="7">
         <v>3</v>
       </c>
@@ -1359,9 +1399,12 @@
       <c r="C4" s="6">
         <v>10</v>
       </c>
-      <c r="D4" s="7"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D4" s="6"/>
+      <c r="E4" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" s="7">
         <v>4</v>
       </c>
@@ -1371,9 +1414,10 @@
       <c r="C5" s="6">
         <v>11</v>
       </c>
-      <c r="D5" s="7"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D5" s="6"/>
+      <c r="E5" s="7"/>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" s="7">
         <v>5</v>
       </c>
@@ -1383,25 +1427,31 @@
       <c r="C6" s="6">
         <v>12</v>
       </c>
-      <c r="D6" s="7"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D6" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" s="7"/>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" s="7"/>
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
-      <c r="D7" s="7"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D7" s="6"/>
+      <c r="E7" s="7"/>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" s="7"/>
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
-      <c r="D8" s="7"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D8" s="6"/>
+      <c r="E8" s="7"/>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" s="7"/>
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
-      <c r="D9" s="7"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1413,18 +1463,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="2" max="2" width="27.375" customWidth="1"/>
     <col min="3" max="3" width="24.875" customWidth="1"/>
     <col min="4" max="4" width="38.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" ht="36.75" customHeight="1">
       <c r="A1" s="4" t="s">
         <v>6</v>
       </c>
@@ -1438,7 +1488,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5">
       <c r="A2" s="11">
         <v>1</v>
       </c>
@@ -1453,7 +1503,7 @@
       </c>
       <c r="E2" s="10"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5">
       <c r="A3" s="11">
         <v>2</v>
       </c>
@@ -1468,7 +1518,7 @@
       </c>
       <c r="E3" s="10"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5">
       <c r="A4" s="11">
         <v>3</v>
       </c>
@@ -1483,7 +1533,7 @@
       </c>
       <c r="E4" s="10"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5">
       <c r="A5" s="11">
         <v>4</v>
       </c>
@@ -1498,7 +1548,7 @@
       </c>
       <c r="E5" s="10"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5">
       <c r="A6" s="11">
         <v>5</v>
       </c>
@@ -1513,7 +1563,7 @@
       </c>
       <c r="E6" s="10"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5">
       <c r="A7" s="11">
         <v>6</v>
       </c>
@@ -1528,7 +1578,7 @@
       </c>
       <c r="E7" s="10"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5">
       <c r="A8" s="11">
         <v>7</v>
       </c>
@@ -1543,7 +1593,7 @@
       </c>
       <c r="E8" s="10"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5">
       <c r="A9" s="9">
         <v>8</v>
       </c>
@@ -1557,7 +1607,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5">
       <c r="A10" s="9">
         <v>9</v>
       </c>
@@ -1571,7 +1621,7 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5">
       <c r="A11" s="9">
         <v>10</v>
       </c>
@@ -1585,7 +1635,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5">
       <c r="A12" s="9">
         <v>11</v>
       </c>
@@ -1599,7 +1649,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5">
       <c r="A13" s="9">
         <v>12</v>
       </c>
@@ -1613,37 +1663,45 @@
         <v>604800</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="9"/>
-      <c r="B14" s="9"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5">
+      <c r="A14" s="9">
+        <v>13</v>
+      </c>
+      <c r="B14" s="9">
+        <v>13</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" s="9">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15" s="9"/>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
       <c r="D15" s="9"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5">
       <c r="A16" s="9"/>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
       <c r="D16" s="9"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4">
       <c r="A17" s="9"/>
       <c r="B17" s="9"/>
       <c r="C17" s="9"/>
       <c r="D17" s="9"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4">
       <c r="A18" s="9"/>
       <c r="B18" s="9"/>
       <c r="C18" s="9"/>
       <c r="D18" s="9"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4">
       <c r="A19" s="9"/>
       <c r="B19" s="9"/>
       <c r="C19" s="9"/>

--- a/config_Release/sign_in_config_server.xlsx
+++ b/config_Release/sign_in_config_server.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="29">
   <si>
     <t>no|第几天</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -129,14 +129,18 @@
   </si>
   <si>
     <t>shop_gold_sum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rate</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -568,7 +572,7 @@
       <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10.5" style="1" customWidth="1"/>
     <col min="2" max="2" width="31.875" style="1" bestFit="1" customWidth="1"/>
@@ -577,7 +581,7 @@
     <col min="5" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="33.75" customHeight="1">
+    <row r="1" spans="1:15" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>16</v>
       </c>
@@ -602,7 +606,7 @@
       <c r="N1"/>
       <c r="O1"/>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" s="7">
         <v>1</v>
       </c>
@@ -625,7 +629,7 @@
       <c r="N2"/>
       <c r="O2"/>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" s="7"/>
       <c r="B3" s="7"/>
       <c r="C3" s="6"/>
@@ -642,7 +646,7 @@
       <c r="N3"/>
       <c r="O3"/>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" s="7"/>
       <c r="B4" s="7"/>
       <c r="C4" s="6"/>
@@ -659,7 +663,7 @@
       <c r="N4"/>
       <c r="O4"/>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" s="7"/>
       <c r="B5" s="7"/>
       <c r="C5" s="6"/>
@@ -676,7 +680,7 @@
       <c r="N5"/>
       <c r="O5"/>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="7"/>
       <c r="B6" s="7"/>
       <c r="C6" s="6"/>
@@ -693,7 +697,7 @@
       <c r="N6"/>
       <c r="O6"/>
     </row>
-    <row r="7" spans="1:15">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" s="7"/>
       <c r="B7" s="7"/>
       <c r="C7" s="6"/>
@@ -710,7 +714,7 @@
       <c r="N7"/>
       <c r="O7"/>
     </row>
-    <row r="8" spans="1:15">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" s="7"/>
       <c r="B8" s="7"/>
       <c r="C8" s="6"/>
@@ -727,7 +731,7 @@
       <c r="N8"/>
       <c r="O8"/>
     </row>
-    <row r="9" spans="1:15">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" s="6"/>
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
@@ -744,7 +748,7 @@
       <c r="N9"/>
       <c r="O9"/>
     </row>
-    <row r="10" spans="1:15">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" s="6"/>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
@@ -761,7 +765,7 @@
       <c r="N10"/>
       <c r="O10"/>
     </row>
-    <row r="11" spans="1:15">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" s="6"/>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
@@ -778,7 +782,7 @@
       <c r="N11"/>
       <c r="O11"/>
     </row>
-    <row r="12" spans="1:15">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
@@ -795,7 +799,7 @@
       <c r="N12"/>
       <c r="O12"/>
     </row>
-    <row r="13" spans="1:15">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="6"/>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
@@ -812,7 +816,7 @@
       <c r="N13"/>
       <c r="O13"/>
     </row>
-    <row r="14" spans="1:15">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" s="6"/>
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
@@ -829,7 +833,7 @@
       <c r="N14"/>
       <c r="O14"/>
     </row>
-    <row r="15" spans="1:15">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" s="6"/>
       <c r="B15" s="6"/>
       <c r="C15" s="6"/>
@@ -846,7 +850,7 @@
       <c r="N15"/>
       <c r="O15"/>
     </row>
-    <row r="16" spans="1:15">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" s="6"/>
       <c r="B16" s="6"/>
       <c r="C16" s="6"/>
@@ -863,7 +867,7 @@
       <c r="N16"/>
       <c r="O16"/>
     </row>
-    <row r="17" spans="1:15">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" s="6"/>
       <c r="B17" s="6"/>
       <c r="C17" s="6"/>
@@ -880,7 +884,7 @@
       <c r="N17"/>
       <c r="O17"/>
     </row>
-    <row r="18" spans="1:15">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18" s="6"/>
       <c r="B18" s="6"/>
       <c r="C18" s="6"/>
@@ -897,7 +901,7 @@
       <c r="N18"/>
       <c r="O18"/>
     </row>
-    <row r="19" spans="1:15">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" s="6"/>
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>
@@ -922,23 +926,24 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P19"/>
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="23.875" style="1" customWidth="1"/>
     <col min="2" max="2" width="14.75" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="28.5" customWidth="1"/>
     <col min="4" max="4" width="25.375" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="43.375" style="3" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="3"/>
+    <col min="5" max="5" width="25.375" style="3" customWidth="1"/>
+    <col min="6" max="6" width="43.375" style="3" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="36" customHeight="1">
+    <row r="1" spans="1:17" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -952,21 +957,24 @@
         <v>8</v>
       </c>
       <c r="E1" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="4"/>
       <c r="G1" s="4"/>
       <c r="H1" s="4"/>
-      <c r="I1" s="5"/>
+      <c r="I1" s="4"/>
       <c r="J1" s="5"/>
       <c r="K1" s="5"/>
       <c r="L1" s="5"/>
       <c r="M1" s="5"/>
-      <c r="N1"/>
+      <c r="N1" s="5"/>
       <c r="O1"/>
       <c r="P1"/>
-    </row>
-    <row r="2" spans="1:16">
+      <c r="Q1"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="7">
         <v>1</v>
       </c>
@@ -977,22 +985,25 @@
       <c r="D2" s="6">
         <v>1</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="6">
+        <v>2</v>
+      </c>
+      <c r="F2" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="7"/>
       <c r="G2" s="7"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="7"/>
-      <c r="J2"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="7"/>
       <c r="K2"/>
       <c r="L2"/>
       <c r="M2"/>
       <c r="N2"/>
       <c r="O2"/>
       <c r="P2"/>
-    </row>
-    <row r="3" spans="1:16">
+      <c r="Q2"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" s="7">
         <v>2</v>
       </c>
@@ -1001,22 +1012,23 @@
       </c>
       <c r="C3" s="6"/>
       <c r="D3" s="6"/>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="6"/>
+      <c r="F3" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="F3" s="7"/>
       <c r="G3" s="7"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="7"/>
-      <c r="J3"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="7"/>
       <c r="K3"/>
       <c r="L3"/>
       <c r="M3"/>
       <c r="N3"/>
       <c r="O3"/>
       <c r="P3"/>
-    </row>
-    <row r="4" spans="1:16">
+      <c r="Q3"/>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" s="7">
         <v>3</v>
       </c>
@@ -1027,20 +1039,23 @@
       <c r="D4" s="6">
         <v>2</v>
       </c>
-      <c r="E4" s="7"/>
+      <c r="E4" s="6">
+        <v>2</v>
+      </c>
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="7"/>
-      <c r="J4"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="7"/>
       <c r="K4"/>
       <c r="L4"/>
       <c r="M4"/>
       <c r="N4"/>
       <c r="O4"/>
       <c r="P4"/>
-    </row>
-    <row r="5" spans="1:16">
+      <c r="Q4"/>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="7">
         <v>4</v>
       </c>
@@ -1049,20 +1064,21 @@
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
-      <c r="E5" s="7"/>
+      <c r="E5" s="6"/>
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="7"/>
-      <c r="J5"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="7"/>
       <c r="K5"/>
       <c r="L5"/>
       <c r="M5"/>
       <c r="N5"/>
       <c r="O5"/>
       <c r="P5"/>
-    </row>
-    <row r="6" spans="1:16">
+      <c r="Q5"/>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="7">
         <v>5</v>
       </c>
@@ -1073,20 +1089,23 @@
       <c r="D6" s="6">
         <v>3</v>
       </c>
-      <c r="E6" s="7"/>
+      <c r="E6" s="6">
+        <v>2</v>
+      </c>
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="7"/>
-      <c r="J6"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="7"/>
       <c r="K6"/>
       <c r="L6"/>
       <c r="M6"/>
       <c r="N6"/>
       <c r="O6"/>
       <c r="P6"/>
-    </row>
-    <row r="7" spans="1:16">
+      <c r="Q6"/>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="7">
         <v>6</v>
       </c>
@@ -1095,20 +1114,21 @@
       </c>
       <c r="C7" s="6"/>
       <c r="D7" s="6"/>
-      <c r="E7" s="7"/>
+      <c r="E7" s="6"/>
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="7"/>
-      <c r="J7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="7"/>
       <c r="K7"/>
       <c r="L7"/>
       <c r="M7"/>
       <c r="N7"/>
       <c r="O7"/>
       <c r="P7"/>
-    </row>
-    <row r="8" spans="1:16">
+      <c r="Q7"/>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="7">
         <v>7</v>
       </c>
@@ -1117,206 +1137,218 @@
       </c>
       <c r="C8" s="6"/>
       <c r="D8" s="6"/>
-      <c r="E8" s="7"/>
+      <c r="E8" s="6"/>
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="7"/>
-      <c r="J8"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="7"/>
       <c r="K8"/>
       <c r="L8"/>
       <c r="M8"/>
       <c r="N8"/>
       <c r="O8"/>
       <c r="P8"/>
-    </row>
-    <row r="9" spans="1:16">
+      <c r="Q8"/>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="6"/>
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
       <c r="D9" s="6"/>
-      <c r="E9" s="7"/>
+      <c r="E9" s="6"/>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="7"/>
-      <c r="J9"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="7"/>
       <c r="K9"/>
       <c r="L9"/>
       <c r="M9"/>
       <c r="N9"/>
       <c r="O9"/>
       <c r="P9"/>
-    </row>
-    <row r="10" spans="1:16">
+      <c r="Q9"/>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="6"/>
       <c r="B10" s="6"/>
       <c r="D10" s="6"/>
-      <c r="E10" s="7"/>
+      <c r="E10" s="6"/>
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="7"/>
-      <c r="J10"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="7"/>
       <c r="K10"/>
       <c r="L10"/>
       <c r="M10"/>
       <c r="N10"/>
       <c r="O10"/>
       <c r="P10"/>
-    </row>
-    <row r="11" spans="1:16">
+      <c r="Q10"/>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="6"/>
       <c r="B11" s="6"/>
       <c r="D11" s="6"/>
-      <c r="E11" s="7"/>
+      <c r="E11" s="6"/>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="7"/>
-      <c r="J11"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="7"/>
       <c r="K11"/>
       <c r="L11"/>
       <c r="M11"/>
       <c r="N11"/>
       <c r="O11"/>
       <c r="P11"/>
-    </row>
-    <row r="12" spans="1:16">
+      <c r="Q11"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
       <c r="D12" s="6"/>
-      <c r="E12" s="7"/>
+      <c r="E12" s="6"/>
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="7"/>
-      <c r="J12"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="7"/>
       <c r="K12"/>
       <c r="L12"/>
       <c r="M12"/>
       <c r="N12"/>
       <c r="O12"/>
       <c r="P12"/>
-    </row>
-    <row r="13" spans="1:16">
+      <c r="Q12"/>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="6"/>
       <c r="B13" s="6"/>
       <c r="D13" s="6"/>
-      <c r="E13" s="7"/>
+      <c r="E13" s="6"/>
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="7"/>
-      <c r="J13"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="7"/>
       <c r="K13"/>
       <c r="L13"/>
       <c r="M13"/>
       <c r="N13"/>
       <c r="O13"/>
       <c r="P13"/>
-    </row>
-    <row r="14" spans="1:16">
+      <c r="Q13"/>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="6"/>
       <c r="B14" s="6"/>
       <c r="D14" s="6"/>
-      <c r="E14" s="7"/>
+      <c r="E14" s="6"/>
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="7"/>
-      <c r="J14"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="7"/>
       <c r="K14"/>
       <c r="L14"/>
       <c r="M14"/>
       <c r="N14"/>
       <c r="O14"/>
       <c r="P14"/>
-    </row>
-    <row r="15" spans="1:16">
+      <c r="Q14"/>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="6"/>
       <c r="B15" s="6"/>
       <c r="D15" s="6"/>
-      <c r="E15" s="7"/>
+      <c r="E15" s="6"/>
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="7"/>
-      <c r="J15"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="7"/>
       <c r="K15"/>
       <c r="L15"/>
       <c r="M15"/>
       <c r="N15"/>
       <c r="O15"/>
       <c r="P15"/>
-    </row>
-    <row r="16" spans="1:16">
+      <c r="Q15"/>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="6"/>
       <c r="B16" s="6"/>
       <c r="D16" s="6"/>
-      <c r="E16" s="7"/>
+      <c r="E16" s="6"/>
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="7"/>
-      <c r="J16"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="7"/>
       <c r="K16"/>
       <c r="L16"/>
       <c r="M16"/>
       <c r="N16"/>
       <c r="O16"/>
       <c r="P16"/>
-    </row>
-    <row r="17" spans="1:16">
+      <c r="Q16"/>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="6"/>
       <c r="B17" s="6"/>
       <c r="D17" s="6"/>
-      <c r="E17" s="7"/>
+      <c r="E17" s="6"/>
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
-      <c r="H17" s="8"/>
-      <c r="I17" s="7"/>
-      <c r="J17"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="7"/>
       <c r="K17"/>
       <c r="L17"/>
       <c r="M17"/>
       <c r="N17"/>
       <c r="O17"/>
       <c r="P17"/>
-    </row>
-    <row r="18" spans="1:16">
+      <c r="Q17"/>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="6"/>
       <c r="B18" s="6"/>
       <c r="D18" s="6"/>
-      <c r="E18" s="7"/>
+      <c r="E18" s="6"/>
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
-      <c r="H18" s="8"/>
-      <c r="I18" s="7"/>
-      <c r="J18"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="7"/>
       <c r="K18"/>
       <c r="L18"/>
       <c r="M18"/>
       <c r="N18"/>
       <c r="O18"/>
       <c r="P18"/>
-    </row>
-    <row r="19" spans="1:16">
+      <c r="Q18"/>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="6"/>
       <c r="B19" s="6"/>
       <c r="D19" s="6"/>
-      <c r="E19" s="7"/>
+      <c r="E19" s="6"/>
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
-      <c r="H19" s="8"/>
-      <c r="I19" s="7"/>
-      <c r="J19"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="7"/>
       <c r="K19"/>
       <c r="L19"/>
       <c r="M19"/>
       <c r="N19"/>
       <c r="O19"/>
       <c r="P19"/>
+      <c r="Q19"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1330,10 +1362,10 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="1"/>
     <col min="2" max="2" width="22.875" customWidth="1"/>
@@ -1342,7 +1374,7 @@
     <col min="5" max="5" width="46.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="42" customHeight="1">
+    <row r="1" spans="1:5" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>11</v>
       </c>
@@ -1359,7 +1391,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="7">
         <v>1</v>
       </c>
@@ -1374,7 +1406,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="7">
         <v>2</v>
       </c>
@@ -1389,7 +1421,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="7">
         <v>3</v>
       </c>
@@ -1404,7 +1436,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="7">
         <v>4</v>
       </c>
@@ -1417,7 +1449,7 @@
       <c r="D5" s="6"/>
       <c r="E5" s="7"/>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="7">
         <v>5</v>
       </c>
@@ -1432,21 +1464,21 @@
       </c>
       <c r="E6" s="7"/>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="7"/>
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
       <c r="D7" s="6"/>
       <c r="E7" s="7"/>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="7"/>
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
       <c r="D8" s="6"/>
       <c r="E8" s="7"/>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="7"/>
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
@@ -1461,20 +1493,20 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="B15" sqref="B15:B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="27.375" customWidth="1"/>
-    <col min="3" max="3" width="24.875" customWidth="1"/>
-    <col min="4" max="4" width="38.75" customWidth="1"/>
+    <col min="3" max="3" width="21.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="36.75" customHeight="1">
+    <row r="1" spans="1:5" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>6</v>
       </c>
@@ -1488,7 +1520,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="11">
         <v>1</v>
       </c>
@@ -1503,7 +1535,7 @@
       </c>
       <c r="E2" s="10"/>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="11">
         <v>2</v>
       </c>
@@ -1518,7 +1550,7 @@
       </c>
       <c r="E3" s="10"/>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="11">
         <v>3</v>
       </c>
@@ -1533,7 +1565,7 @@
       </c>
       <c r="E4" s="10"/>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="11">
         <v>4</v>
       </c>
@@ -1548,7 +1580,7 @@
       </c>
       <c r="E5" s="10"/>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="11">
         <v>5</v>
       </c>
@@ -1563,7 +1595,7 @@
       </c>
       <c r="E6" s="10"/>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="11">
         <v>6</v>
       </c>
@@ -1578,7 +1610,7 @@
       </c>
       <c r="E7" s="10"/>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="11">
         <v>7</v>
       </c>
@@ -1593,7 +1625,7 @@
       </c>
       <c r="E8" s="10"/>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="9">
         <v>8</v>
       </c>
@@ -1607,7 +1639,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="9">
         <v>9</v>
       </c>
@@ -1621,7 +1653,7 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="9">
         <v>10</v>
       </c>
@@ -1635,7 +1667,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="9">
         <v>11</v>
       </c>
@@ -1649,7 +1681,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="9">
         <v>12</v>
       </c>
@@ -1663,7 +1695,7 @@
         <v>604800</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="9">
         <v>13</v>
       </c>
@@ -1677,35 +1709,103 @@
         <v>100</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="9"/>
-      <c r="B15" s="9"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="9"/>
-      <c r="B16" s="9"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="9"/>
-      <c r="B17" s="9"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="9"/>
-      <c r="B18" s="9"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="9"/>
-      <c r="B19" s="9"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="11">
+        <v>14</v>
+      </c>
+      <c r="B15" s="11">
+        <v>14</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15" s="11">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="11">
+        <v>15</v>
+      </c>
+      <c r="B16" s="11">
+        <v>15</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16" s="11">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="11">
+        <v>16</v>
+      </c>
+      <c r="B17" s="11">
+        <v>16</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D17" s="11">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="11">
+        <v>17</v>
+      </c>
+      <c r="B18" s="11">
+        <v>17</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D18" s="11">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="11">
+        <v>18</v>
+      </c>
+      <c r="B19" s="11">
+        <v>18</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D19" s="11">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="11">
+        <v>19</v>
+      </c>
+      <c r="B20" s="11">
+        <v>19</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20" s="11">
+        <v>35000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="11">
+        <v>20</v>
+      </c>
+      <c r="B21" s="11">
+        <v>20</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D21" s="11">
+        <v>50000</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
